--- a/climbing_levels.xlsx
+++ b/climbing_levels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D2D6A6-88CA-406B-9AED-5C6365D26C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE91D1B4-9011-428E-BF30-CDC997316958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1231D7A7-7234-4274-AF92-EA1586408372}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1231D7A7-7234-4274-AF92-EA1586408372}"/>
   </bookViews>
   <sheets>
     <sheet name="judgement" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>體能狀況</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,10 @@
   <si>
     <t>曾於 1 天內完成步行不超過 10 公里、
 總爬升不超過 500 公尺路線，例如：擎天崗環形步道、雪見林間步道、壽山步道、翠峰湖環山步道等平整良好之路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太陽眼鏡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,6 +394,11 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
     </font>
     <font>
       <sz val="12"/>
@@ -420,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C130237E-E4E4-4784-B254-F114FAFDFE49}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1797,6 +1809,17 @@
       </c>
       <c r="C47" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +1854,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
